--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2536.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2536.xlsx
@@ -354,7 +354,7 @@
         <v>3.223580994545511</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.402920234424236</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2536.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2536.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.54137012457404</v>
+        <v>1.811335325241089</v>
       </c>
       <c r="B1">
-        <v>3.223580994545511</v>
+        <v>1.991052031517029</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.349579334259033</v>
       </c>
       <c r="D1">
-        <v>1.402920234424236</v>
+        <v>2.941033363342285</v>
       </c>
       <c r="E1">
-        <v>1.292324058155353</v>
+        <v>3.38599157333374</v>
       </c>
     </row>
   </sheetData>
